--- a/docs/assets/disciplinas/LOQ4234.xlsx
+++ b/docs/assets/disciplinas/LOQ4234.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-5,EM-5,EB-8,EP-6,EQD-5,EQN-8</t>
+    <t>EF-5,EM-4,EA-2,EB-8,EP-6,EQD-5,EQN-8</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOQ4234.xlsx
+++ b/docs/assets/disciplinas/LOQ4234.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fomentar a cultura do empreendedorismo; Desenvolver habilidades empreendedoras; Apresentar conhecimentos necessários para a criação de startups. A disciplina é aplicada através de Aprendizagem baseada em Projetos, onde o projeto a ser desenvolvido é da criação de uma startup ao longo do semestre.</t>
+    <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Características do Comportamento Empreendedor; Modelo de Negócios; Produto mínimo viável; Plano de Negócios.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.Características do Comportamento Empreendedor: Busca de oportunidades e iniciativa. Correr riscos calculados. Exigência de qualidade e eficiência. Persistência. Comprometimento. Busca de informações. Estabelecimento de metas. Monitoramento e planejamento sistemático. Persuasão e rede contatos. Independência e autoconfiança.2.Modelo de Negócios (Lean Canvas): Problema. Segmento de Clientes. Proposta de Valor Única. Solução. Métricas-Chave. Canais. Estrutura de Custos. Fluxos de Receita. Vantagem Injusta.3.Produto mínimo viável: Ciclo Construir-Mensurar-Aprender. Valor da vida útil do cliente.4.Plano de Negócios: Marketing, Finanças, Recursos Humanos, Desenvolvimento de Produtos e Tecnologia da Informação e Comunicação.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Os alunos montarão equipes que serão responsáveis por propor a criação de uma startup, do modelo de negócios ao plano de negócios, incluindo a montagem do produto mínimo viável.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliação dos trabalhos e apresentações ao longo do semestre</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BLANK, Steve Gary. Do Sonho a realização em 4 passos: Estratégias para a criação de empresas de sucesso. Editora Evora. 3ª edição, 2008BLANK, Steve; DORF, Bob. STARTUP: Manual do Empreendedorismo. O guia passo a passo para construir uma grande empresa. Alta Books Editora.  1ª edição, 2014.CECCONELO, Antonio; AJZENTAL, Alberto. A construção do plano de negócios. Ed. Saraiva, 1ª edição, 2008.CHIAVENATO, Idalberto. Empreendedorismo – dando asas ao espírito empreendedor. Ed. Saraiva, 3ª edição, 2008.DOLABELA, Fernando. O Segredo de Luísa. Rio de Janeiro: Sextante, 2008. DORNELAS, Jose. Empreendedorismo: transformando ideias em negócios. Editora Campus. 1ª edição, 2001DORNELAS, Jose. Empreendedorismo na prática. LTC. 3ª edição, 2015DORNELAS, Jose Carlos Assis. Empreendedorismo na prática – mitos e verdades do empreendedor de sucesso. Elsevier/Campus: Rio de Janeiro, 2007. FILION, L. J.; Visão e Relações: Elementos para um Metamodelo da Atividade Empreendedora. International Small Business Journal, 1991. Tradução de Costa, S.R. FILION, L. J.; - O planejamento do seu Sistema de Aprendizagem Empresarial: Identifique uma Visão e Avalie o seu Sistema de Relações. Revista de Administração de Empresas, FGV, São Paulo, jul/set. 1991, pag. 31(3): 63:71. HASHIMOTO, Marcos. Espírito empreendedor nas organizações – aumentando a competitividade através do intraempreendedorismo. São Paulo: Saraiva, 2006. HISRICH, Robert; PETERS, Michael.  Empreendedorismo. 5.ed. - Porto Alegre: Bookman, 2004. OSTERWALDER, Alexander. Inovação Em Modelos de Negócios – Business Model Generation. Editora Alta Books, 2011PINCHOT, Gifford; PELLMAN, Ron. Intraempreendedorismo na prática: um guia de inovação. Campus: 2004RIES, Eric. A startup enxuta. Leya Editora. 1ª edição, 2011SANTOS. S.A. e CUNHA, N.C.V (orgs.). Empresas de Base Tecnológica: Conceitos, instrumentos e recursos. Unicorpore, 2005THIEL, Peter. De Zero a UM: O que aprender sobre empreendedorismo com Vale do Silício. Objetiva. 1ª edição, 2014TIMMONS; Jeffry; DORNELAS, José. SPINELLI, Stephen. A criação de novos negócios – empreendedorismo para o século 21. Editora Campus. 2010.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4234.xlsx
+++ b/docs/assets/disciplinas/LOQ4234.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fomentar a cultura do empreendedorismo; Desenvolver habilidades empreendedoras; Apresentar conhecimentos necessários para a criação de startups. A disciplina é aplicada através de Aprendizagem baseada em Projetos, onde o projeto a ser desenvolvido é da criação de uma startup ao longo do semestre.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Promote the culture of entrepreneurship. Develop entrepreneurial skills. Present knowledge needed to create startups. The discipline is applied through Project-Based Learning, where the project to be developed is the creation of a startup during the semester.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Promote the culture of entrepreneurship. Develop entrepreneurial skills. Present knowledge needed to create startups. The discipline is applied through Project-Based Learning, where the project to be developed is the creation of a startup during the semester.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Características do Comportamento Empreendedor; Modelo de Negócios; Produto mínimo viável; Plano de Negócios.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Características do Comportamento Empreendedor: Busca de oportunidades e iniciativa. Correr riscos calculados. Exigência de qualidade e eficiência. Persistência. Comprometimento. Busca de informações. Estabelecimento de metas. Monitoramento e planejamento sistemático. Persuasão e rede contatos. Independência e autoconfiança.2.Modelo de Negócios (Lean Canvas): Problema. Segmento de Clientes. Proposta de Valor Única. Solução. Métricas-Chave. Canais. Estrutura de Custos. Fluxos de Receita. Vantagem Injusta.3.Produto mínimo viável: Ciclo Construir-Mensurar-Aprender. Valor da vida útil do cliente.4.Plano de Negócios: Marketing, Finanças, Recursos Humanos, Desenvolvimento de Produtos e Tecnologia da Informação e Comunicação.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Os alunos montarão equipes que serão responsáveis por propor a criação de uma startup, do modelo de negócios ao plano de negócios, incluindo a montagem do produto mínimo viável.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos montarão equipes que serão responsáveis por propor a criação de uma startup, do modelo de negócios ao plano de negócios, incluindo a montagem do produto mínimo viável.</t>
+    <t>Avaliação dos trabalhos e apresentações ao longo do semestre</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Avaliação dos trabalhos e apresentações ao longo do semestre</t>
+    <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação</t>
+    <t>BLANK, Steve Gary. Do Sonho a realização em 4 passos: Estratégias para a criação de empresas de sucesso. Editora Evora. 3ª edição, 2008BLANK, Steve; DORF, Bob. STARTUP: Manual do Empreendedorismo. O guia passo a passo para construir uma grande empresa. Alta Books Editora.  1ª edição, 2014.CECCONELO, Antonio; AJZENTAL, Alberto. A construção do plano de negócios. Ed. Saraiva, 1ª edição, 2008.CHIAVENATO, Idalberto. Empreendedorismo – dando asas ao espírito empreendedor. Ed. Saraiva, 3ª edição, 2008.DOLABELA, Fernando. O Segredo de Luísa. Rio de Janeiro: Sextante, 2008. DORNELAS, Jose. Empreendedorismo: transformando ideias em negócios. Editora Campus. 1ª edição, 2001DORNELAS, Jose. Empreendedorismo na prática. LTC. 3ª edição, 2015DORNELAS, Jose Carlos Assis. Empreendedorismo na prática – mitos e verdades do empreendedor de sucesso. Elsevier/Campus: Rio de Janeiro, 2007. FILION, L. J.; Visão e Relações: Elementos para um Metamodelo da Atividade Empreendedora. International Small Business Journal, 1991. Tradução de Costa, S.R. FILION, L. J.; - O planejamento do seu Sistema de Aprendizagem Empresarial: Identifique uma Visão e Avalie o seu Sistema de Relações. Revista de Administração de Empresas, FGV, São Paulo, jul/set. 1991, pag. 31(3): 63:71. HASHIMOTO, Marcos. Espírito empreendedor nas organizações – aumentando a competitividade através do intraempreendedorismo. São Paulo: Saraiva, 2006. HISRICH, Robert; PETERS, Michael.  Empreendedorismo. 5.ed. - Porto Alegre: Bookman, 2004. OSTERWALDER, Alexander. Inovação Em Modelos de Negócios – Business Model Generation. Editora Alta Books, 2011PINCHOT, Gifford; PELLMAN, Ron. Intraempreendedorismo na prática: um guia de inovação. Campus: 2004RIES, Eric. A startup enxuta. Leya Editora. 1ª edição, 2011SANTOS. S.A. e CUNHA, N.C.V (orgs.). Empresas de Base Tecnológica: Conceitos, instrumentos e recursos. Unicorpore, 2005THIEL, Peter. De Zero a UM: O que aprender sobre empreendedorismo com Vale do Silício. Objetiva. 1ª edição, 2014TIMMONS; Jeffry; DORNELAS, José. SPINELLI, Stephen. A criação de novos negócios – empreendedorismo para o século 21. Editora Campus. 2010.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
